--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$211</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>第一章：互联网基础</t>
   </si>
@@ -552,6 +552,19 @@
 有哪些合法的子网：块大小（增量）为256 - 子网掩码。
 </t>
   </si>
+  <si>
+    <t>第五章：变长子网掩码、汇总和TCP/IP 故障排除</t>
+  </si>
+  <si>
+    <t>变长子网掩码：它使用长度不同的子冋掩码将大型网络划分成众多子网，适用于不同类型的网络设计。这称为VLSM（variable length subnet mask）。一些古老的协议没有低筒包含子网信息的字段，一次将丢失子网信息。例如RIPv1。所以建议使用RIPv2，OSPF，VLSM。</t>
+  </si>
+  <si>
+    <t>汇总：汇总也叫路由聚合，让路由选择协议能够用一个地址通告众多网络，旨在缩小路由器中路由选择 表的规模，以节省内存，并缩短ip对路由选择表进行分析以找出前往远程网络的最佳路径所需的时间。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排除IP编址故障
+</t>
+  </si>
 </sst>
 </file>
 
@@ -591,8 +604,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,6 +627,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -615,29 +658,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,11 +685,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,18 +701,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -712,23 +733,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -744,7 +757,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,13 +823,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,18 +913,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -828,103 +925,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,6 +952,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -949,26 +995,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,9 +1031,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,23 +1043,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,10 +1056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,133 +1068,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7257,10 +7270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AG118"/>
+  <dimension ref="A2:AG119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8081,7 +8094,7 @@
     <row r="110" ht="59" customHeight="1"/>
     <row r="111" ht="27" spans="2:3">
       <c r="B111" s="3">
-        <f>MAX(B109,B110)+1</f>
+        <f t="shared" ref="B111:B116" si="5">MAX(B109,B110)+1</f>
         <v>2</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -8091,21 +8104,53 @@
     <row r="112" ht="259" customHeight="1"/>
     <row r="113" ht="67.5" spans="2:3">
       <c r="B113" s="3">
-        <f>MAX(B111,B112)+1</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="3">
-        <f>MAX(B112,B113)+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="9"/>
+    <row r="114" customFormat="1" spans="1:3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="6"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" ht="27" customHeight="1" spans="2:3">
+      <c r="B116" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" ht="27" customHeight="1" spans="2:3">
+      <c r="B117" s="3">
+        <f>MAX(B115,B116)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" ht="27" spans="2:3">
+      <c r="B118" s="3">
+        <f>MAX(B116,B117)+1</f>
+        <v>3</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>第一章：互联网基础</t>
   </si>
@@ -562,8 +562,24 @@
     <t>汇总：汇总也叫路由聚合，让路由选择协议能够用一个地址通告众多网络，旨在缩小路由器中路由选择 表的规模，以节省内存，并缩短ip对路由选择表进行分析以找出前往远程网络的最佳路径所需的时间。</t>
   </si>
   <si>
-    <t xml:space="preserve">排除IP编址故障
-</t>
+    <t>排除IP编址故障
+(1)打开命令提示符窗口,并ping 127.0.0.1 这是诊断（环回）地址.如果ping操作成功，则说 明IP栈初始化了。如果失败，说明IP栈出现了故障，需要在主机上重装TCP/IP。
+(2)在命令提示符窗口中，ping当前主机的IP地址（这里假设IP地址配置正确，但务必检査这种 配置爲如果成功，则说明网络接口卡（NIC）正常；如果失败，则说明NIC出现了故障』这一步成 功并不意味着电缆揷入了 NIC,而只意味着主机的1P协议栈能够通过LAN駆动程序与NIC通信.
+(3)在命令提示符窗口中.ping默认网关(路由器)。如果成功，说明NIC连接到了网络,能够与本地 网络通信倾如果失败，则说明本地物理网络出现了故障，该故障可能位于NIC到路由器之间的任何地方。
+(4)如果第(1)~(3)步都成功了，尝试ping远程服务器。如果成功，便可确定本地主机和远程服务 器能够进行IP通信，且远程物理网络运行正常。
+(5)如果虽然第⑴~(4)步成功,但用户仍不能与服务器通信，则可能存在某种名称解析问题，需要检査域名系统(DNS)设置。但如果ping远程服务器失败，便可确定存在某种远程物理网络问题，需 要对服务器执行第⑴-(3)步，直到找出罪魁祸首。</t>
+  </si>
+  <si>
+    <t>第六章：思科互联网操作系统</t>
+  </si>
+  <si>
+    <t>I0S：思科互联网络操作系统（Internetwork Operstiong System, IOS ），是思科路由器和所有Catalyst交换机的内核。内核是操作系统不可或缺的基本部分,它分配资源，并对诸如低级硬件接口和安全等方面进行管理。思科IOS是一个专用内核，提供路由选择、交换、冋络互联和远程通信功能。IOS运行在 思科路由器和思科交换机上.让你能够对设备进行配置。</t>
+  </si>
+  <si>
+    <t>连接到思科IOS设备
+控制台端口通常是8针的模块化RJ45接头
+通过辅助端口 ( auxiliary port)连接到思科路由器
+第三种方式是通过RMet或Secure Shell ( SSH )程序，，这是一种带内方式。</t>
   </si>
 </sst>
 </file>
@@ -604,18 +620,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,15 +642,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,37 +711,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,18 +720,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,11 +742,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,6 +770,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -781,19 +815,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,67 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,61 +899,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,8 +985,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,21 +1045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1043,8 +1059,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,10 +1072,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,10 +1084,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,121 +1096,121 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7270,10 +7286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AG119"/>
+  <dimension ref="A2:AG135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8094,7 +8110,7 @@
     <row r="110" ht="59" customHeight="1"/>
     <row r="111" ht="27" spans="2:3">
       <c r="B111" s="3">
-        <f t="shared" ref="B111:B116" si="5">MAX(B109,B110)+1</f>
+        <f t="shared" ref="B111:B118" si="5">MAX(B109,B110)+1</f>
         <v>2</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -8133,16 +8149,16 @@
     </row>
     <row r="117" ht="27" customHeight="1" spans="2:3">
       <c r="B117" s="3">
-        <f>MAX(B115,B116)+1</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118" ht="27" spans="2:3">
+    <row r="118" ht="138" customHeight="1" spans="2:3">
       <c r="B118" s="3">
-        <f>MAX(B116,B117)+1</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -8151,6 +8167,108 @@
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="9"/>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" ht="40.5" spans="2:3">
+      <c r="B121" s="3">
+        <f>MAX(B119,B120)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" ht="54" spans="2:3">
+      <c r="B122" s="3">
+        <f t="shared" ref="B122:B135" si="6">MAX(B120,B121)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="3">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="3">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -7,19 +7,19 @@
     <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="概念总结" sheetId="1" r:id="rId1"/>
+    <sheet name="命令合集" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$211</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概念总结!$A$1:$C$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$98</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
   <si>
     <t>第一章：互联网基础</t>
   </si>
@@ -581,6 +581,119 @@
 通过辅助端口 ( auxiliary port)连接到思科路由器
 第三种方式是通过RMet或Secure Shell ( SSH )程序，，这是一种带内方式。</t>
   </si>
+  <si>
+    <t>思科路由器：</t>
+  </si>
+  <si>
+    <t>启动交换机：启动思科IOS设备时，将经过加电自检（POST ）Q通过加电自检后，将在闪存中査找思科IOS, 如果找到IOS文件，将把它加载到内存中。闪存是电可擦除只读存储器，即EEPROM. IOS加载后，它将寻找有效配置（称为启动配置），这种配置存储在非易失RAM （ nonvolatile RAM,NVRAM ）中。
+加载并运行IOS后，将把启动配置从NVRAM复制到内存中，此后这种配置就被称为运行配置。 然而，如果没有在NVRAM中找到有效的启动配置，交换机将进入设置模式，让你能够以对话的方式逐步配置一些基本参数。</t>
+  </si>
+  <si>
+    <t>开机界面：</t>
+  </si>
+  <si>
+    <t>用户模式：接口状态消息出现后，如果按回车健，将出现提示符Switch&gt;、这被称为用户EXEC模式（简称用户模式）,主要用于査看统计信息。但也是进入特权EXEC模式（简称特权模式）的跳板。
+要退岀控制台，可执行命令logout：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特权模式：只有在特权EXEC模式（特权模式）下，才能査看并修改思科路由器的配置。要进入这种模式， 可执行命令enablet如下所示：
+提示符Switch#表明当前处于特权模式，在这种模式下，可査看并修改交换机的配置，要从特权模式返回用户模式，可使用命令disable,如下所示：
+</t>
+  </si>
+  <si>
+    <t>全局模式：特权模式下输入configure termial (缩写 conf t),将进入全局配置模式.这种模式下所做的修改将影响整台路由器，因此被称为全局配置模式.
+在特权模式提示符下执行命令config,再按回车接受默认选项terminal,如下所示：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口模式：interface 接口号进入接口模式
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line命令：用于配置用户模式密码;例如： line console 0 是全局命令，也称为主命令。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配置访问列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配置路由器选择协议
+</t>
+  </si>
+  <si>
+    <t>路由器术语/CLI</t>
+  </si>
+  <si>
+    <t>主机名：要设置路由器的身份，可使用命令hostname。这只对本地有影响，即不会影响路由器或者交换机如何执行名称査找，也不会影响设备在互联网络中的运行方式。然而，主机名依然很重要，因为很多广域网 (WAN)都将主机名用于身份验证。</t>
+  </si>
+  <si>
+    <t>EXEC旗标：可配置线路激活（EXEC）旗标，这种旗标在创建EXEC进程（如线路激活或有到来的VTY线路连接）时显示。通过控制台端口创建用户EXEC会话时，将激活EXEC旗标。</t>
+  </si>
+  <si>
+    <t>登录旗标 可配置在所有连接的终端上显示的登录旗标。这种旗标在MOTD旗标之后，登录提示出现之前显示。不能基于线路来禁用登录旗标，而必须全局禁用它。为此，必须使用命令no banner login将其删除。</t>
+  </si>
+  <si>
+    <t>为确保思科路由器的安全，需要的密码有五种：控制台密码、辅助端口密码、Telnet ( VTY )密 码、启用密码(enable password)和启用加密密码(enable secret)。启用密码和启用加密密码用于控制用户进入特权模式，在用户执行enable命令时要求他提供密码。其他三种密码用于控制用户通过控制台端口、辅助端口和Telnet进入用户模式。</t>
+  </si>
+  <si>
+    <t>ip subnet-zero
+ip subnet zero 是用来限制router不可使用与class相同的subnet. IP SUBNET-ZERO是说你可以使用子网里的第一个子网和最后一个子网,比如说192.168.1.0/25,可以分为192.168.1.0和192.168.1.128子网,在没有使用IP SUBNET-ZERO时着两个子网是 不可以用的,用了这个命令就可以了。</t>
+  </si>
+  <si>
+    <t>ping
+使用ICMP回应请求和应答进行测试，检查网络中节点的1P栈是否已初始化并处于活 动状态。</t>
+  </si>
+  <si>
+    <t>□traceroute
+使用TTL超时和ICMP错误消息，显示前往某个网络冃的地时经过的路径上的 所有路由器。在命令提示符窗口中，不能使用该命令。</t>
+  </si>
+  <si>
+    <t>tracert
+功能与traceroute相同,是一个Microsoft Windows命令，在思科路由器上不管用。</t>
+  </si>
+  <si>
+    <t>arp -a 
+在Windows PC中显示IP地址到MAC地址的映射</t>
+  </si>
+  <si>
+    <t>show ip arp
+功能与arp -a相同，但用于在思料路由器中显示ARP表口与命令trace route 和tracert 样，命令arp -a show 5p日rp也只能分别用于DO§和思科路由器中。</t>
+  </si>
+  <si>
+    <t>ipconfig /all
+只能在命令提示符窗口中使用，显示PC的网络配置。</t>
+  </si>
+  <si>
+    <t>第六章：思科互联网络操作系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入特权模式：enable
+退出特权模式：disable
+</t>
+  </si>
+  <si>
+    <t>退出控制台命令：logout</t>
+  </si>
+  <si>
+    <t>使用命令no banner login禁用登录旗标</t>
+  </si>
+  <si>
+    <t>last-resort：在使用TACACS服务器进行身份验证，但该服务器不可用时，让你依然能够进入路由器；如果TACACS服务器可用,则这种密码将不管用。</t>
+  </si>
+  <si>
+    <t>password：在10.3之前的老系统上设置启用密码，如果设置了启用加密密码，该密码不管用.</t>
+  </si>
+  <si>
+    <t>secret：较新的加密密码，如果设置了，将优先于启用密码。</t>
+  </si>
+  <si>
+    <t>use-tacacs：让路由器使用TACACS服务器进行身份验证。如果有大量路由器，这将很方便， 因为在大量路由器上修改密码很繁琐。使用TACACS服务器只需修改密码一次即可，这容易得多。如果你将启用加密密码和启用密码设置成一个，路由器将礼貌地提醒你修改第二个密码。如果你 使用的不是老式路由器，无需使用启用密码。</t>
+  </si>
+  <si>
+    <t>进入用户模式的密码是使用命令line设置的，由于只有一个控制台端口，因此只能选择编号0，最后別忘了执行命令login,否则控制台端口将不进行身份验证。
+console：设置控制合端口的用户模式密码。
+vty：设置通过Rl«t连接到路由器的密码。如果没有设置这种密码，默认将不能通过Telnet 连接到路由器。</t>
+  </si>
 </sst>
 </file>
 
@@ -607,17 +720,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -628,37 +756,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -673,32 +779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,9 +793,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,23 +815,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,9 +839,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -773,37 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,103 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +934,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +982,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +1054,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,40 +1081,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,32 +1104,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,6 +1132,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1072,10 +1185,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,157 +1197,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6994,6 +7113,1065 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="图片 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="77647800"/>
+          <a:ext cx="2809875" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2943225</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5581650</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="77695425"/>
+          <a:ext cx="2638425" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>1930400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="图片 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="79298800"/>
+          <a:ext cx="4276725" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="图片 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="82410300"/>
+          <a:ext cx="1076325" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="图片 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="82937350"/>
+          <a:ext cx="847725" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:srcRect t="6061"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="81626075"/>
+          <a:ext cx="1724025" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4064000</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>873125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="图片 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358775" y="83623150"/>
+          <a:ext cx="4029075" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="图片 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:srcRect t="9677"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="84321650"/>
+          <a:ext cx="2400300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="图片 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="84778850"/>
+          <a:ext cx="1685925" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="图片 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="85575775"/>
+          <a:ext cx="2266950" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="86007575"/>
+          <a:ext cx="1438275" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3517900</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1263650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="图片 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="469900" y="86826725"/>
+          <a:ext cx="3371850" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3816350</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6988175</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>2305050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="图片 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="86772750"/>
+          <a:ext cx="3171825" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1228725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3790950</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>2305050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="图片 88"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="87849075"/>
+          <a:ext cx="3752850" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="图片 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="89306400"/>
+          <a:ext cx="1647825" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>492125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="365125" y="3597275"/>
+          <a:ext cx="1076325" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="4114800"/>
+          <a:ext cx="847725" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4064000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>873125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358775" y="5626100"/>
+          <a:ext cx="4029075" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:srcRect t="6061"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="4619625"/>
+          <a:ext cx="1724025" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:srcRect t="9677"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="6324600"/>
+          <a:ext cx="2400300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="6781800"/>
+          <a:ext cx="1685925" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="7629525"/>
+          <a:ext cx="2266950" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="8286750"/>
+          <a:ext cx="1647825" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="10185400"/>
+          <a:ext cx="2952750" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>536575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1012825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="11337925"/>
+          <a:ext cx="1847850" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7286,16 +8464,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AG135"/>
+  <dimension ref="A2:AG142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="96.5833333333333" style="1" customWidth="1"/>
     <col min="4" max="33" width="2.625" style="1" customWidth="1"/>
     <col min="34" max="16384" width="1.83333333333333" style="1" customWidth="1"/>
@@ -7308,64 +8486,64 @@
       <c r="B2" s="5"/>
     </row>
     <row r="3" ht="27" spans="2:33">
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <f>MAX(B1,B2)+1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="2:3">
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <f t="shared" ref="B4:B19" si="0">MAX(B2,B3)+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="27" spans="2:3">
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7374,160 +8552,160 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:3">
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:3">
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="27" spans="2:3">
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:3">
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:3">
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:3">
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:3">
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="2:3">
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" ht="27" spans="2:3">
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="164" customHeight="1" spans="3:3">
-      <c r="C20" s="6"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="2:3">
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <f>MAX(B19,B20)+1</f>
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="92" customHeight="1" spans="3:3">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="27" spans="2:3">
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <f>MAX(B21,B22)+1</f>
         <v>19</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="148.5" spans="2:3">
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <f>MAX(B22,B23)+1</f>
         <v>20</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="211" customHeight="1"/>
     <row r="26" spans="2:3">
-      <c r="B26" s="3">
+      <c r="B26" s="7">
         <f>MAX(B24,B25)+1</f>
         <v>21</v>
       </c>
@@ -7536,7 +8714,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="3">
+      <c r="B27" s="7">
         <f>MAX(B25,B26)+1</f>
         <v>22</v>
       </c>
@@ -7551,39 +8729,39 @@
       </c>
     </row>
     <row r="30" ht="27" spans="2:3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="2:3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="2:3">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" ht="69" customHeight="1" spans="2:3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -7591,18 +8769,18 @@
       </c>
     </row>
     <row r="35" ht="40.5" spans="2:3">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" ht="27" spans="2:3">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7613,86 +8791,86 @@
       <c r="B38" s="5"/>
     </row>
     <row r="39" ht="28" customHeight="1" spans="2:3">
-      <c r="B39" s="3">
+      <c r="B39" s="7">
         <f>MAX(B37,B38)+1</f>
         <v>1</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" ht="121" customHeight="1"/>
     <row r="41" ht="148.5" spans="2:3">
-      <c r="B41" s="3">
+      <c r="B41" s="7">
         <f t="shared" ref="B41:B49" si="1">MAX(B39,B40)+1</f>
         <v>2</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="3">
+      <c r="B42" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="2:3">
-      <c r="B43" s="3">
+      <c r="B43" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" ht="67.5" spans="2:3">
-      <c r="B44" s="3">
+      <c r="B44" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="40.5" spans="2:3">
-      <c r="B45" s="3">
+    <row r="45" s="8" customFormat="1" ht="40.5" spans="2:3">
+      <c r="B45" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="69" customHeight="1" spans="2:3">
-      <c r="B46" s="3">
+      <c r="B46" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="72" customHeight="1" spans="2:2">
-      <c r="B47" s="3">
+      <c r="B47" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="2:3">
-      <c r="B48" s="3">
+      <c r="B48" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="3">
+      <c r="B49" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -7702,7 +8880,7 @@
     </row>
     <row r="50" ht="240" customHeight="1"/>
     <row r="51" spans="2:3">
-      <c r="B51" s="3">
+      <c r="B51" s="7">
         <f>MAX(B49,B50)+1</f>
         <v>11</v>
       </c>
@@ -7712,70 +8890,70 @@
     </row>
     <row r="52" ht="60" customHeight="1"/>
     <row r="53" spans="2:3">
-      <c r="B53" s="3">
+      <c r="B53" s="7">
         <f>MAX(B51,B52)+1</f>
         <v>12</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" ht="27" spans="2:3">
-      <c r="B54" s="3">
+      <c r="B54" s="7">
         <f>MAX(B52,B53)+1</f>
         <v>13</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" ht="27" spans="2:3">
-      <c r="B55" s="3">
+      <c r="B55" s="7">
         <f>MAX(B53,B54)+1</f>
         <v>14</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="3">
+      <c r="B56" s="7">
         <f t="shared" ref="B53:B61" si="2">MAX(B54,B55)+1</f>
         <v>15</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="57" ht="27" spans="2:3">
-      <c r="B57" s="3">
+      <c r="B57" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="3">
+      <c r="B58" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:3">
-      <c r="B59" s="3">
+      <c r="B59" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="3">
+      <c r="B60" s="7">
         <f t="shared" ref="B60:B66" si="3">MAX(B58,B59)+1</f>
         <v>19</v>
       </c>
@@ -7784,58 +8962,58 @@
       </c>
     </row>
     <row r="61" ht="40.5" spans="2:3">
-      <c r="B61" s="3">
+      <c r="B61" s="7">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" ht="54" spans="2:3">
-      <c r="B62" s="3">
+      <c r="B62" s="7">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" ht="54" spans="2:3">
-      <c r="B63" s="3">
+      <c r="B63" s="7">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" ht="120" customHeight="1"/>
     <row r="65" ht="40.5" spans="2:3">
-      <c r="B65" s="3">
+      <c r="B65" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" ht="54" spans="2:3">
-      <c r="B66" s="3">
+      <c r="B66" s="7">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" ht="140" customHeight="1"/>
     <row r="68" ht="216" spans="2:3">
-      <c r="B68" s="3">
+      <c r="B68" s="7">
         <f>MAX(B66,B67)+1</f>
         <v>25</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7851,7 +9029,7 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="3">
+      <c r="B73" s="7">
         <f>MAX(B71,B72)+1</f>
         <v>1</v>
       </c>
@@ -7860,17 +9038,17 @@
       </c>
     </row>
     <row r="74" ht="121.5" spans="2:3">
-      <c r="B74" s="3">
+      <c r="B74" s="7">
         <f t="shared" ref="B74:B93" si="4">MAX(B72,B73)+1</f>
         <v>2</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="75" ht="133" customHeight="1"/>
     <row r="76" spans="2:3">
-      <c r="B76" s="3">
+      <c r="B76" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -7879,7 +9057,7 @@
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="3">
+      <c r="B77" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -7888,7 +9066,7 @@
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="3">
+      <c r="B78" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -7897,7 +9075,7 @@
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="3">
+      <c r="B79" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -7906,7 +9084,7 @@
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="3">
+      <c r="B80" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -7915,7 +9093,7 @@
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="3">
+      <c r="B81" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -7924,7 +9102,7 @@
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="3">
+      <c r="B82" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -7933,7 +9111,7 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="3">
+      <c r="B83" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -7942,7 +9120,7 @@
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="3">
+      <c r="B84" s="7">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -7951,45 +9129,45 @@
       </c>
     </row>
     <row r="85" ht="81" customHeight="1" spans="2:3">
-      <c r="B85" s="3">
+      <c r="B85" s="7">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="86" ht="40.5" spans="2:3">
-      <c r="B86" s="3">
+      <c r="B86" s="7">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" ht="56" customHeight="1" spans="2:3">
-      <c r="B87" s="3">
+      <c r="B87" s="7">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="88" ht="112" customHeight="1"/>
     <row r="89" ht="27" spans="2:3">
-      <c r="B89" s="3">
+      <c r="B89" s="7">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" ht="100" customHeight="1"/>
     <row r="91" spans="2:3">
-      <c r="B91" s="3">
+      <c r="B91" s="7">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -7999,55 +9177,55 @@
     </row>
     <row r="92" ht="75" customHeight="1"/>
     <row r="93" ht="27" spans="2:3">
-      <c r="B93" s="3">
+      <c r="B93" s="7">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="94" ht="187" customHeight="1"/>
     <row r="95" ht="40.5" spans="2:3">
-      <c r="B95" s="3">
+      <c r="B95" s="7">
         <f>MAX(B93,B94)+1</f>
         <v>18</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="96" ht="27" spans="2:3">
-      <c r="B96" s="3">
+      <c r="B96" s="7">
         <f>MAX(B94,B95)+1</f>
         <v>19</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="97" ht="42" customHeight="1" spans="2:3">
-      <c r="B97" s="3">
+      <c r="B97" s="7">
         <f>MAX(B95,B96)+1</f>
         <v>20</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="98" ht="102" customHeight="1"/>
     <row r="99" ht="54" customHeight="1" spans="2:3">
-      <c r="B99" s="3">
+      <c r="B99" s="7">
         <f>MAX(B97,B98)+1</f>
         <v>21</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="100" ht="60" customHeight="1"/>
     <row r="101" spans="2:3">
-      <c r="B101" s="3">
+      <c r="B101" s="7">
         <f>MAX(B99,B100)+1</f>
         <v>22</v>
       </c>
@@ -8056,25 +9234,25 @@
       </c>
     </row>
     <row r="102" ht="27" spans="2:3">
-      <c r="B102" s="3">
+      <c r="B102" s="7">
         <f>MAX(B100,B101)+1</f>
         <v>23</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="103" ht="27" spans="2:3">
-      <c r="B103" s="3">
+      <c r="B103" s="7">
         <f>MAX(B101,B102)+1</f>
         <v>24</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="3">
+      <c r="B104" s="7">
         <f>MAX(B102,B103)+1</f>
         <v>25</v>
       </c>
@@ -8083,11 +9261,11 @@
       </c>
     </row>
     <row r="105" ht="40.5" spans="2:3">
-      <c r="B105" s="3">
+      <c r="B105" s="7">
         <f>MAX(B103,B104)+1</f>
         <v>26</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8099,7 +9277,7 @@
       <c r="B108" s="5"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="3">
+      <c r="B109" s="7">
         <f>MAX(B106,B108)+1</f>
         <v>1</v>
       </c>
@@ -8109,28 +9287,28 @@
     </row>
     <row r="110" ht="59" customHeight="1"/>
     <row r="111" ht="27" spans="2:3">
-      <c r="B111" s="3">
+      <c r="B111" s="7">
         <f t="shared" ref="B111:B118" si="5">MAX(B109,B110)+1</f>
         <v>2</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="112" ht="259" customHeight="1"/>
     <row r="113" ht="67.5" spans="2:3">
-      <c r="B113" s="3">
+      <c r="B113" s="7">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="1:3">
       <c r="A114" s="1"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="1:2">
       <c r="A115" s="4" t="s">
@@ -8139,34 +9317,34 @@
       <c r="B115" s="5"/>
     </row>
     <row r="116" ht="27" customHeight="1" spans="2:3">
-      <c r="B116" s="3">
+      <c r="B116" s="7">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="117" ht="27" customHeight="1" spans="2:3">
-      <c r="B117" s="3">
+      <c r="B117" s="7">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="118" ht="138" customHeight="1" spans="2:3">
-      <c r="B118" s="3">
+      <c r="B118" s="7">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="9"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="1:2">
       <c r="A120" s="4" t="s">
@@ -8175,99 +9353,179 @@
       <c r="B120" s="5"/>
     </row>
     <row r="121" ht="40.5" spans="2:3">
-      <c r="B121" s="3">
+      <c r="B121" s="7">
         <f>MAX(B119,B120)+1</f>
         <v>1</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="122" ht="54" spans="2:3">
-      <c r="B122" s="3">
-        <f t="shared" ref="B122:B135" si="6">MAX(B120,B121)+1</f>
+      <c r="B122" s="7">
+        <f>MAX(B120,B121)+1</f>
         <v>2</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="3">
-        <f t="shared" si="6"/>
+    <row r="123" spans="2:3">
+      <c r="B123" s="7">
+        <f>MAX(B121,B122)+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="3">
-        <f t="shared" si="6"/>
+      <c r="C123" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" ht="66" customHeight="1"/>
+    <row r="125" ht="56" customHeight="1" spans="2:3">
+      <c r="B125" s="7">
+        <f>MAX(B123,B124)+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="3">
-        <f t="shared" si="6"/>
+      <c r="C125" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" ht="156" customHeight="1" spans="3:3">
+      <c r="C126" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" ht="89" customHeight="1" spans="2:3">
+      <c r="B127" s="7">
+        <f t="shared" ref="B126:B134" si="6">MAX(B125,B126)+1</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="3">
+      <c r="C127" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" ht="79" customHeight="1" spans="2:3">
+      <c r="B128" s="7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="3">
+      <c r="C128" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" ht="69" customHeight="1" spans="2:3">
+      <c r="B129" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="3">
+      <c r="C129" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" ht="39" customHeight="1" spans="2:3">
+      <c r="B130" s="7">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="3">
+      <c r="C130" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" ht="63" customHeight="1" spans="2:3">
+      <c r="B131" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="3">
+      <c r="C131" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" ht="33" customHeight="1" spans="2:3">
+      <c r="B132" s="7">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="3">
+      <c r="C132" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" ht="61" customHeight="1" spans="2:3">
+      <c r="B133" s="7">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="3">
+      <c r="C133" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" ht="186" customHeight="1" spans="2:3">
+      <c r="B134" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="3">
-        <f t="shared" si="6"/>
+      <c r="C134" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" ht="76" customHeight="1" spans="2:3">
+      <c r="B135" s="7">
+        <f>MAX(B133,B134)+1</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="3">
-        <f t="shared" si="6"/>
+      <c r="C135" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" ht="27" spans="1:3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="7">
+        <f>MAX(B134,B135)+1</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="3">
-        <f t="shared" si="6"/>
+      <c r="C136" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" customFormat="1" ht="27" spans="1:3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="7">
+        <f t="shared" ref="B137:B142" si="7">MAX(B135,B136)+1</f>
         <v>15</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" ht="44" customHeight="1" spans="2:3">
+      <c r="B138" s="7">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="7">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="7">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="7">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="7">
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8275,7 +9533,7 @@
     <mergeCell ref="D3:AG3"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.156944444444444" top="0.196527777777778" bottom="0.156944444444444" header="0.156944444444444" footer="0.550694444444444"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="23" max="2" man="1"/>
@@ -8290,33 +9548,223 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="96.5833333333333" style="2" customWidth="1"/>
+    <col min="4" max="33" width="2.625" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="1.83333333333333" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" ht="40.5" spans="2:3">
+      <c r="B3" s="3">
+        <f>MAX(B1,B2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:3">
+      <c r="B4" s="3">
+        <f>MAX(B2,B3)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="2:3">
+      <c r="B5" s="3">
+        <f>MAX(B3,B4)+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="2:3">
+      <c r="B6" s="3">
+        <f>MAX(B4,B5)+1</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:3">
+      <c r="B7" s="3">
+        <f>MAX(B5,B6)+1</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="2:3">
+      <c r="B8" s="3">
+        <f>MAX(B6,B7)+1</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="2:3">
+      <c r="B9" s="3">
+        <f>MAX(B7,B8)+1</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" ht="81" spans="2:3">
+      <c r="B13" s="3">
+        <f t="shared" ref="B13:B19" si="0">MAX(B11,B12)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" ht="63" customHeight="1" spans="2:3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="69" customHeight="1" spans="2:3">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="39" customHeight="1" spans="2:3">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="42" customHeight="1" spans="2:3">
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="76" customHeight="1" spans="2:3">
+      <c r="B19" s="7">
+        <f t="shared" ref="B19:B26" si="1">MAX(B17,B18)+1</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="2:3">
+      <c r="B24" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" ht="53" customHeight="1" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" ht="82" customHeight="1" spans="2:3">
+      <c r="B26" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.196527777777778" right="0.156944444444444" top="0.196527777777778" bottom="0.156944444444444" header="0.156944444444444" footer="0.550694444444444"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="20" max="2" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="概念总结" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -741,6 +741,27 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -749,7 +770,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,45 +799,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,13 +832,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -838,24 +839,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,11 +862,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -886,7 +886,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,37 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,7 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,103 +1042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,13 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,6 +1077,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1091,35 +1115,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1143,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1163,17 +1167,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,10 +1185,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,133 +1197,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8464,10 +8464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AG142"/>
+  <dimension ref="A2:AG144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -9396,7 +9396,7 @@
     </row>
     <row r="127" ht="89" customHeight="1" spans="2:3">
       <c r="B127" s="7">
-        <f t="shared" ref="B126:B134" si="6">MAX(B125,B126)+1</f>
+        <f t="shared" ref="B126:B136" si="6">MAX(B125,B126)+1</f>
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -9468,7 +9468,7 @@
     </row>
     <row r="135" ht="76" customHeight="1" spans="2:3">
       <c r="B135" s="7">
-        <f>MAX(B133,B134)+1</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -9478,7 +9478,7 @@
     <row r="136" customFormat="1" ht="27" spans="1:3">
       <c r="A136" s="2"/>
       <c r="B136" s="7">
-        <f>MAX(B134,B135)+1</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -9512,20 +9512,32 @@
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="7">
-        <f t="shared" si="7"/>
+        <f>MAX(B138,B139)+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7">
-        <f t="shared" si="7"/>
+        <f>MAX(B139,B140)+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="7">
-        <f t="shared" si="7"/>
+        <f>MAX(B140,B141)+1</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="7">
+        <f>MAX(B141,B142)+1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="7">
+        <f>MAX(B142,B143)+1</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9571,7 +9583,7 @@
     </row>
     <row r="3" ht="40.5" spans="2:3">
       <c r="B3" s="3">
-        <f>MAX(B1,B2)+1</f>
+        <f t="shared" ref="B3:B9" si="0">MAX(B1,B2)+1</f>
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -9580,7 +9592,7 @@
     </row>
     <row r="4" ht="27" spans="2:3">
       <c r="B4" s="3">
-        <f>MAX(B2,B3)+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -9589,7 +9601,7 @@
     </row>
     <row r="5" ht="27" spans="2:3">
       <c r="B5" s="3">
-        <f>MAX(B3,B4)+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -9598,7 +9610,7 @@
     </row>
     <row r="6" ht="27" spans="2:3">
       <c r="B6" s="3">
-        <f>MAX(B4,B5)+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -9607,7 +9619,7 @@
     </row>
     <row r="7" ht="27" spans="2:3">
       <c r="B7" s="3">
-        <f>MAX(B5,B6)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9616,7 +9628,7 @@
     </row>
     <row r="8" ht="27" spans="2:3">
       <c r="B8" s="3">
-        <f>MAX(B6,B7)+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -9625,7 +9637,7 @@
     </row>
     <row r="9" ht="27" spans="2:3">
       <c r="B9" s="3">
-        <f>MAX(B7,B8)+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -9640,7 +9652,7 @@
     </row>
     <row r="13" ht="81" spans="2:3">
       <c r="B13" s="3">
-        <f t="shared" ref="B13:B19" si="0">MAX(B11,B12)+1</f>
+        <f t="shared" ref="B13:B19" si="1">MAX(B11,B12)+1</f>
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -9649,7 +9661,7 @@
     </row>
     <row r="14" ht="63" customHeight="1" spans="2:3">
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -9658,7 +9670,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="69" customHeight="1" spans="2:3">
       <c r="B15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -9667,7 +9679,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="39" customHeight="1" spans="2:3">
       <c r="B16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -9676,7 +9688,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
       <c r="B17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -9685,7 +9697,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="42" customHeight="1" spans="2:3">
       <c r="B18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -9694,7 +9706,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="76" customHeight="1" spans="2:3">
       <c r="B19" s="7">
-        <f t="shared" ref="B19:B26" si="1">MAX(B17,B18)+1</f>
+        <f t="shared" ref="B19:B26" si="2">MAX(B17,B18)+1</f>
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -9703,7 +9715,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -9712,7 +9724,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -9721,7 +9733,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -9730,7 +9742,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -9739,7 +9751,7 @@
     </row>
     <row r="24" ht="40.5" spans="2:3">
       <c r="B24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -9751,7 +9763,7 @@
     </row>
     <row r="26" ht="82" customHeight="1" spans="2:3">
       <c r="B26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">

--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概念总结" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概念总结!$A$1:$C$210</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$62</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
   <si>
     <t>第一章：互联网基础</t>
   </si>
@@ -636,6 +636,15 @@
     <t>为确保思科路由器的安全，需要的密码有五种：控制台密码、辅助端口密码、Telnet ( VTY )密 码、启用密码(enable password)和启用加密密码(enable secret)。启用密码和启用加密密码用于控制用户进入特权模式，在用户执行enable命令时要求他提供密码。其他三种密码用于控制用户通过控制台端口、辅助端口和Telnet进入用户模式。</t>
   </si>
   <si>
+    <t>设置密码：为确保思科路由器的安全，需要的密码有五种：控制台密码、辅助端口密码、Telnet/SSH ( VTY )密码、启用密码(enable password)和启用加密密码(enable secret).启用密码和启用加密密码用于控制用户进入 特权模式，在用户执行enable命令时要求他提供密码。其他三种密码用于控制用户通过控制台端口、 辅助端口和Telnet进入用户模式.</t>
+  </si>
+  <si>
+    <t>将控制台EXEC会话的超时时间设置为0,这意味着永远不超时，默认的超时时间为10分钟。</t>
+  </si>
+  <si>
+    <t>辅助端口密码设置：要给路由器配置辅助端口密码，清进入全局配置模式并输入line aux ？。交换机没有辅助端口。从下面的输出可知，你只有一种选择，那就是0,因为只有一个辅助端口。</t>
+  </si>
+  <si>
     <t>ip subnet-zero
 ip subnet zero 是用来限制router不可使用与class相同的subnet. IP SUBNET-ZERO是说你可以使用子网里的第一个子网和最后一个子网,比如说192.168.1.0/25,可以分为192.168.1.0和192.168.1.128子网,在没有使用IP SUBNET-ZERO时着两个子网是 不可以用的,用了这个命令就可以了。</t>
   </si>
@@ -693,6 +702,68 @@
     <t>进入用户模式的密码是使用命令line设置的，由于只有一个控制台端口，因此只能选择编号0，最后別忘了执行命令login,否则控制台端口将不进行身份验证。
 console：设置控制合端口的用户模式密码。
 vty：设置通过Rl«t连接到路由器的密码。如果没有设置这种密码，默认将不能通过Telnet 连接到路由器。</t>
+  </si>
+  <si>
+    <t>设置全局模式密码：</t>
+  </si>
+  <si>
+    <t>进入用户模式密码是使用命令line设置，如下所示：</t>
+  </si>
+  <si>
+    <t>控制台窗口设置密码：別忘了执行命令login,否则控制台端口将不进行身份验证，给线路设置密码前，思科不允许你执行命令login,因为如果执行命令login后没有设置密码，该线路将不可用。</t>
+  </si>
+  <si>
+    <t>命令exec-timeout 0。将控制台EXEC会话的超时时间设置为0,这意味着永远不超时，默认的超时时间为10分钟。</t>
+  </si>
+  <si>
+    <t>Telnet密码：要设置使用Telnet访问路由器时进入用户模式的密码。可使用命令line vty。 IOS交换机通常 有16条线路，但运行IOS企业版的路由器的线路多得多。要荻悉有多少条线路，最佳的方法是使用 问号，如下所示：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辅助端口密码设置：要给路由器配置辅助端口密码，清进入全局配置模式并输入line aux ？。交换机没有辅助端口。从下面的输出可知，你只有一种选择，那就是0,因为只有一个辅助端口。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置主机名：
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置域名(为生成加密密钥，必须有用户名和域名)：
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将用户名设置成支持SSH客户端接入：
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4)生成用于保护会话的加密密钥：
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在路由器上启用SSH第2Jtfio并非必须，但强烈推荐这样做；
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入交换机VTY线路配置模式:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配置接入协议：
+请注意，在生产环境中，绝对不要配置下面的命令，因为这将带来可怕的安全风险：
+建议配置下面的命令，以使用SSH来保护VTY线路：
+实际上，在必要的情况F、我偶尔确实会使用Telnet,只是不会经常这样做.如果你确实想使用
+Telnet,请按下面这样做：
+如果没有在上述命令末尾指定关键字telnet,设备将只支持SSH。这里并不是要建议你使用哪种方式，而只是想让你知道SSH比Telnet更安全。
+</t>
+  </si>
+  <si>
+    <t>密码加密：
+这样，密码就将被加密。我们所要做的就是如密密码，再执行命令show run,之后有必要就可 以取消密码加密口输岀清楚地表明，启用密码和线路密码都被加密了。</t>
+  </si>
+  <si>
+    <t>设置接口描述:与主机名一样，接口描述也只在本地有意义。需要标识交换机电路号或路由器串行WAN端口时，命令description很方便.</t>
+  </si>
+  <si>
+    <t>功能强大的验 证命令show ip interface brief的输出</t>
   </si>
 </sst>
 </file>
@@ -701,9 +772,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -734,21 +805,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -756,21 +812,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,38 +820,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,11 +840,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,16 +909,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,6 +928,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,19 +957,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,49 +1035,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,91 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,6 +1096,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,21 +1161,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1115,15 +1171,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,11 +1190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,11 +1222,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,10 +1256,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,34 +1268,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,97 +1307,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8162,6 +8233,891 @@
         <a:xfrm>
           <a:off x="371475" y="11337925"/>
           <a:ext cx="1847850" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2841625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>841375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:srcRect l="2326"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="365125" y="11998325"/>
+          <a:ext cx="2800350" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>841375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1422400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:srcRect l="1299"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="12684125"/>
+          <a:ext cx="2895600" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1400175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2333625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="13242925"/>
+          <a:ext cx="4410075" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>650875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="14347825"/>
+          <a:ext cx="2066925" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1974850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="384175" y="15220950"/>
+          <a:ext cx="1914525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="454025" y="15878175"/>
+          <a:ext cx="1876425" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="17059275"/>
+          <a:ext cx="1876425" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2771775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1235075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="18440400"/>
+          <a:ext cx="2724150" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="20589875"/>
+          <a:ext cx="3238500" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>336550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="20250150"/>
+          <a:ext cx="2514600" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2295525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>336550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="19897725"/>
+          <a:ext cx="2286000" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="19523075"/>
+          <a:ext cx="1724025" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="22355175"/>
+          <a:ext cx="1552575" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="22688550"/>
+          <a:ext cx="1428750" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="23012400"/>
+          <a:ext cx="1905000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>863600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1006475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="23742650"/>
+          <a:ext cx="1962150" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1177925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1539875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="24056975"/>
+          <a:ext cx="2105025" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1876425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2019300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="24755475"/>
+          <a:ext cx="2314575" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>727075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:srcRect t="7813"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="25317450"/>
+          <a:ext cx="2295525" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2813050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1644650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374650" y="26416000"/>
+          <a:ext cx="2762250" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4057650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="28114625"/>
+          <a:ext cx="4010025" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8466,8 +9422,8 @@
   <sheetPr/>
   <dimension ref="A2:AG144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -9488,7 +10444,7 @@
     <row r="137" customFormat="1" ht="27" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="7">
-        <f t="shared" ref="B137:B142" si="7">MAX(B135,B136)+1</f>
+        <f t="shared" ref="B137:B144" si="7">MAX(B135,B136)+1</f>
         <v>15</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -9504,39 +10460,48 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" ht="40.5" spans="2:3">
       <c r="B139" s="7">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="2:2">
+      <c r="C139" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
       <c r="B140" s="7">
-        <f>MAX(B138,B139)+1</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="2:2">
+      <c r="C140" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" ht="27" customHeight="1" spans="2:3">
       <c r="B141" s="7">
-        <f>MAX(B139,B140)+1</f>
+        <f t="shared" si="7"/>
         <v>19</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="7">
-        <f>MAX(B140,B141)+1</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7">
-        <f>MAX(B141,B142)+1</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7">
-        <f>MAX(B142,B143)+1</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -9560,10 +10525,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C26"/>
+  <dimension ref="A2:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9587,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:3">
@@ -9596,7 +10561,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" ht="27" spans="2:3">
@@ -9605,7 +10570,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:3">
@@ -9614,7 +10579,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:3">
@@ -9623,7 +10588,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:3">
@@ -9632,7 +10597,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="27" spans="2:3">
@@ -9641,12 +10606,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3"/>
     </row>
@@ -9656,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" ht="63" customHeight="1" spans="2:3">
@@ -9665,7 +10630,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="69" customHeight="1" spans="2:3">
@@ -9706,7 +10671,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="76" customHeight="1" spans="2:3">
       <c r="B19" s="7">
-        <f t="shared" ref="B19:B26" si="2">MAX(B17,B18)+1</f>
+        <f t="shared" ref="B19:B32" si="2">MAX(B17,B18)+1</f>
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -9719,7 +10684,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -9728,7 +10693,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -9737,7 +10702,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -9746,7 +10711,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="2:3">
@@ -9755,7 +10720,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" ht="53" customHeight="1" spans="2:2">
@@ -9767,7 +10732,205 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" ht="185" customHeight="1" spans="2:3">
+      <c r="B27" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" ht="54" customHeight="1" spans="2:3">
+      <c r="B28" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" ht="66" customHeight="1" spans="2:3">
+      <c r="B29" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" ht="78" customHeight="1" spans="2:3">
+      <c r="B30" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" ht="112" customHeight="1" spans="2:3">
+      <c r="B31" s="7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" ht="100" customHeight="1" spans="2:3">
+      <c r="B32" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1" spans="2:3">
+      <c r="B33" s="7">
+        <f t="shared" ref="B33:B39" si="3">MAX(B31,B32)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="2:3">
+      <c r="B34" s="7">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="2:3">
+      <c r="B35" s="7">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" ht="139" customHeight="1" spans="2:3">
+      <c r="B36" s="7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="2:3">
+      <c r="B37" s="7">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="2:3">
+      <c r="B38" s="7">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" ht="179" customHeight="1" spans="2:3">
+      <c r="B39" s="7">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" ht="84" customHeight="1" spans="2:3">
+      <c r="B40" s="7">
+        <f>MAX(B38,B39)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" ht="135" customHeight="1" spans="2:3">
+      <c r="B41" s="7">
+        <f>MAX(B39,B40)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" ht="120" customHeight="1" spans="2:3">
+      <c r="B42" s="7">
+        <f>MAX(B40,B41)+1</f>
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="7">
+        <f>MAX(B40,B42)+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="7">
+        <f t="shared" ref="B42:B51" si="4">MAX(B42,B43)+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="7">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="7">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="7">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="7">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="7">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="7">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="7">
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12270" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概念总结" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概念总结!$A$1:$C$210</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$64</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
   <si>
     <t>第一章：互联网基础</t>
   </si>
@@ -735,11 +735,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(4)生成用于保护会话的加密密钥：
+    <t xml:space="preserve">生成用于保护会话的加密密钥：
 </t>
   </si>
   <si>
-    <t xml:space="preserve">在路由器上启用SSH第2Jtfio并非必须，但强烈推荐这样做；
+    <t xml:space="preserve">在路由器上启用SSH第2版本并非必须，但强烈推荐这样做；
 </t>
   </si>
   <si>
@@ -765,18 +765,49 @@
   <si>
     <t>功能强大的验 证命令show ip interface brief的输出</t>
   </si>
+  <si>
+    <t>配置接口双工模式和速度</t>
+  </si>
+  <si>
+    <r>
+      <t>给接口配置ip地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务必使用命令no shutdown启用接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>配置带宽：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +856,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -841,14 +879,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,30 +894,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,6 +924,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -927,14 +957,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,10 +965,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -963,7 +1001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,13 +1019,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,31 +1061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,31 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,25 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,19 +1139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,13 +1163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,6 +1198,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1175,17 +1222,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,15 +1263,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1240,11 +1272,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,10 +1294,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1268,10 +1306,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,7 +1318,7 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,112 +1327,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8588,13 +8626,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>1714500</xdr:rowOff>
+      <xdr:rowOff>1733550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8611,7 +8649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="20589875"/>
+          <a:off x="409575" y="20608925"/>
           <a:ext cx="3238500" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8714,13 +8752,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1743075</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8737,7 +8775,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="19523075"/>
+          <a:off x="342900" y="19548475"/>
           <a:ext cx="1724025" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8755,13 +8793,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8779,7 +8817,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="22355175"/>
+          <a:off x="371475" y="24120475"/>
           <a:ext cx="1552575" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8797,13 +8835,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8821,7 +8859,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="22688550"/>
+          <a:off x="342900" y="24453850"/>
           <a:ext cx="1428750" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8839,13 +8877,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>704850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8863,7 +8901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="23012400"/>
+          <a:off x="342900" y="24777700"/>
           <a:ext cx="1905000" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8881,13 +8919,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>863600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1006475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8905,7 +8943,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="23742650"/>
+          <a:off x="333375" y="25507950"/>
           <a:ext cx="1962150" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8923,13 +8961,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1177925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1539875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8947,7 +8985,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="24056975"/>
+          <a:off x="352425" y="25822275"/>
           <a:ext cx="2105025" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8965,13 +9003,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1876425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>2019300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8989,7 +9027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="24755475"/>
+          <a:off x="342900" y="26520775"/>
           <a:ext cx="2314575" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9007,13 +9045,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>727075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9032,7 +9070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="25317450"/>
+          <a:off x="361950" y="27082750"/>
           <a:ext cx="2295525" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9050,13 +9088,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2813050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1644650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9074,7 +9112,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="374650" y="26416000"/>
+          <a:off x="374650" y="28181300"/>
           <a:ext cx="2762250" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9092,13 +9130,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4057650</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1485900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9116,8 +9154,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="28114625"/>
+          <a:off x="371475" y="29879925"/>
           <a:ext cx="4010025" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3000375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>584200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="32013525"/>
+          <a:ext cx="2971800" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="31384875"/>
+          <a:ext cx="2228850" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="32619950"/>
+          <a:ext cx="2733675" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10525,10 +10689,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C51"/>
+  <dimension ref="A2:C53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10791,7 +10955,7 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="2:3">
       <c r="B33" s="7">
-        <f t="shared" ref="B33:B39" si="3">MAX(B31,B32)+1</f>
+        <f>MAX(B31,B32)+1</f>
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -10800,7 +10964,7 @@
     </row>
     <row r="34" ht="27" spans="2:3">
       <c r="B34" s="7">
-        <f t="shared" si="3"/>
+        <f>MAX(B32,B33)+1</f>
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -10809,7 +10973,7 @@
     </row>
     <row r="35" ht="27" spans="2:3">
       <c r="B35" s="7">
-        <f t="shared" si="3"/>
+        <f>MAX(B33,B34)+1</f>
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -10818,119 +10982,137 @@
     </row>
     <row r="36" ht="139" customHeight="1" spans="2:3">
       <c r="B36" s="7">
-        <f t="shared" si="3"/>
+        <f>MAX(B34,B35)+1</f>
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="2:3">
-      <c r="B37" s="7">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>147</v>
-      </c>
+    <row r="37" ht="139" customHeight="1" spans="2:2">
+      <c r="B37" s="7"/>
     </row>
     <row r="38" ht="27" spans="2:3">
       <c r="B38" s="7">
-        <f t="shared" si="3"/>
+        <f>MAX(B35,B36)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="2:3">
+      <c r="B39" s="7">
+        <f>MAX(B36,B38)+1</f>
         <v>25</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" ht="179" customHeight="1" spans="2:3">
-      <c r="B39" s="7">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" ht="84" customHeight="1" spans="2:3">
+    <row r="40" ht="179" customHeight="1" spans="2:3">
       <c r="B40" s="7">
         <f>MAX(B38,B39)+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" ht="135" customHeight="1" spans="2:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" ht="84" customHeight="1" spans="2:3">
       <c r="B41" s="7">
         <f>MAX(B39,B40)+1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" ht="120" customHeight="1" spans="2:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" ht="135" customHeight="1" spans="2:3">
       <c r="B42" s="7">
         <f>MAX(B40,B41)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" ht="120" customHeight="1" spans="2:3">
+      <c r="B43" s="7">
+        <f>MAX(B41,B42)+1</f>
         <v>29</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="7">
-        <f>MAX(B40,B42)+1</f>
+    <row r="44" ht="50" customHeight="1" spans="2:3">
+      <c r="B44" s="7">
+        <f t="shared" ref="B44:B53" si="3">MAX(B42,B43)+1</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="7">
-        <f t="shared" ref="B42:B51" si="4">MAX(B42,B43)+1</f>
+      <c r="C44" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" ht="48" customHeight="1" spans="2:3">
+      <c r="B45" s="7">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="7">
-        <f t="shared" si="4"/>
+      <c r="C45" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" ht="73" customHeight="1" spans="2:3">
+      <c r="B46" s="7">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="7">
-        <f t="shared" si="4"/>
-        <v>33</v>
+      <c r="C46" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="7">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="7">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="7">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="7">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="7">
+        <f t="shared" si="3"/>
         <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="7">
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="概念总结" sheetId="1" r:id="rId1"/>
@@ -770,6 +770,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>给接口配置ip地址：</t>
     </r>
     <r>
@@ -802,10 +808,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -835,8 +841,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,7 +865,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,6 +896,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,53 +918,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,24 +932,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,8 +949,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,7 +1001,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,25 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,133 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,20 +1195,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,22 +1229,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,11 +1262,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,10 +1300,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1306,133 +1312,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9584,10 +9590,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AG144"/>
+  <dimension ref="A2:AG147"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -10644,7 +10650,7 @@
     </row>
     <row r="141" ht="27" customHeight="1" spans="2:3">
       <c r="B141" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B141:B147" si="8">MAX(B139,B140)+1</f>
         <v>19</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -10653,20 +10659,38 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="7">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="7">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="7">
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -10691,7 +10715,7 @@
   <sheetPr/>
   <dimension ref="A2:C53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A32" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -10835,7 +10859,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="76" customHeight="1" spans="2:3">
       <c r="B19" s="7">
-        <f t="shared" ref="B19:B32" si="2">MAX(B17,B18)+1</f>
+        <f t="shared" ref="B19:B36" si="2">MAX(B17,B18)+1</f>
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -10955,7 +10979,7 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="2:3">
       <c r="B33" s="7">
-        <f>MAX(B31,B32)+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -10964,7 +10988,7 @@
     </row>
     <row r="34" ht="27" spans="2:3">
       <c r="B34" s="7">
-        <f>MAX(B32,B33)+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -10973,7 +10997,7 @@
     </row>
     <row r="35" ht="27" spans="2:3">
       <c r="B35" s="7">
-        <f>MAX(B33,B34)+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -10982,7 +11006,7 @@
     </row>
     <row r="36" ht="139" customHeight="1" spans="2:3">
       <c r="B36" s="7">
-        <f>MAX(B34,B35)+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">

--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12270"/>
+    <workbookView windowWidth="13725" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概念总结" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概念总结!$A$1:$C$210</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$111</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="162">
   <si>
     <t>第一章：互联网基础</t>
   </si>
@@ -645,6 +645,9 @@
     <t>辅助端口密码设置：要给路由器配置辅助端口密码，清进入全局配置模式并输入line aux ？。交换机没有辅助端口。从下面的输出可知，你只有一种选择，那就是0,因为只有一个辅助端口。</t>
   </si>
   <si>
+    <t>第七章：管理思科互联网</t>
+  </si>
+  <si>
     <t>ip subnet-zero
 ip subnet zero 是用来限制router不可使用与class相同的subnet. IP SUBNET-ZERO是说你可以使用子网里的第一个子网和最后一个子网,比如说192.168.1.0/25,可以分为192.168.1.0和192.168.1.128子网,在没有使用IP SUBNET-ZERO时着两个子网是 不可以用的,用了这个命令就可以了。</t>
   </si>
@@ -802,16 +805,31 @@
   <si>
     <t>配置带宽：</t>
   </si>
+  <si>
+    <t>可手工将DRAM （通常简称为RAM）中的配置文件复制到NVRAM</t>
+  </si>
+  <si>
+    <t>删除配置及重启</t>
+  </si>
+  <si>
+    <t>查看接口命令</t>
+  </si>
+  <si>
+    <t>接口的具体信息</t>
+  </si>
+  <si>
+    <t>接口物理信息</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -841,22 +859,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -865,37 +867,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,7 +897,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,6 +947,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -948,38 +980,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,19 +1019,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,61 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,49 +1181,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,21 +1210,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1230,6 +1233,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,32 +1305,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,10 +1318,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1312,133 +1330,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8799,13 +8817,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8823,7 +8841,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="24120475"/>
+          <a:off x="371475" y="22355175"/>
           <a:ext cx="1552575" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8841,13 +8859,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8865,7 +8883,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="24453850"/>
+          <a:off x="342900" y="22688550"/>
           <a:ext cx="1428750" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8883,13 +8901,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>704850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8907,7 +8925,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="24777700"/>
+          <a:off x="342900" y="23012400"/>
           <a:ext cx="1905000" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8925,13 +8943,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>863600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1006475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8949,7 +8967,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="25507950"/>
+          <a:off x="333375" y="23742650"/>
           <a:ext cx="1962150" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8967,13 +8985,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1177925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1539875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8991,7 +9009,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="25822275"/>
+          <a:off x="352425" y="24056975"/>
           <a:ext cx="2105025" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9009,13 +9027,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1876425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>2019300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9033,7 +9051,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="26520775"/>
+          <a:off x="342900" y="24755475"/>
           <a:ext cx="2314575" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9051,13 +9069,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>727075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9076,7 +9094,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="27082750"/>
+          <a:off x="361950" y="25317450"/>
           <a:ext cx="2295525" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9094,13 +9112,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2813050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1644650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9118,7 +9136,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="374650" y="28181300"/>
+          <a:off x="374650" y="26416000"/>
           <a:ext cx="2762250" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9136,13 +9154,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4057650</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1485900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9160,7 +9178,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="29879925"/>
+          <a:off x="371475" y="28114625"/>
           <a:ext cx="4010025" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9178,13 +9196,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3000375</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9202,7 +9220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="32013525"/>
+          <a:off x="352425" y="30248225"/>
           <a:ext cx="2971800" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9220,13 +9238,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9244,7 +9262,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="31384875"/>
+          <a:off x="381000" y="29619575"/>
           <a:ext cx="2228850" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9262,13 +9280,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2762250</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9286,8 +9304,218 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="32619950"/>
+          <a:off x="352425" y="30854650"/>
           <a:ext cx="2733675" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2914650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="31765875"/>
+          <a:ext cx="2886075" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4124325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1130300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="32670750"/>
+          <a:ext cx="4086225" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="33874075"/>
+          <a:ext cx="2371725" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3876675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1076325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="35588575"/>
+          <a:ext cx="3810000" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1057275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="36703000"/>
+          <a:ext cx="3124200" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9590,10 +9818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AG147"/>
+  <dimension ref="A2:AG143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140:B147"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A143" sqref="$A143:$XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -10650,48 +10878,18 @@
     </row>
     <row r="141" ht="27" customHeight="1" spans="2:3">
       <c r="B141" s="7">
-        <f t="shared" ref="B141:B147" si="8">MAX(B139,B140)+1</f>
+        <f>MAX(B139,B140)+1</f>
         <v>19</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="7">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="7">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="7">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="7">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="7">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="7">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
+    <row r="143" s="1" customFormat="1" spans="1:2">
+      <c r="A143" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10713,10 +10911,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C53"/>
+  <dimension ref="A2:C58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10740,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:3">
@@ -10749,7 +10947,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="27" spans="2:3">
@@ -10758,7 +10956,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:3">
@@ -10767,7 +10965,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:3">
@@ -10776,7 +10974,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:3">
@@ -10785,7 +10983,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="27" spans="2:3">
@@ -10794,12 +10992,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3"/>
     </row>
@@ -10809,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="63" customHeight="1" spans="2:3">
@@ -10818,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="69" customHeight="1" spans="2:3">
@@ -10872,7 +11070,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -10881,7 +11079,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -10890,7 +11088,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -10899,7 +11097,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="2:3">
@@ -10908,7 +11106,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" ht="53" customHeight="1" spans="2:2">
@@ -10920,7 +11118,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" ht="185" customHeight="1" spans="2:3">
@@ -10929,7 +11127,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" ht="54" customHeight="1" spans="2:3">
@@ -10938,7 +11136,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" ht="66" customHeight="1" spans="2:3">
@@ -10947,7 +11145,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" ht="78" customHeight="1" spans="2:3">
@@ -10956,7 +11154,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" ht="112" customHeight="1" spans="2:3">
@@ -10965,7 +11163,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" ht="100" customHeight="1" spans="2:3">
@@ -10974,7 +11172,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="2:3">
@@ -10983,7 +11181,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" ht="27" spans="2:3">
@@ -10992,7 +11190,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" ht="27" spans="2:3">
@@ -11001,7 +11199,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" ht="139" customHeight="1" spans="2:3">
@@ -11010,135 +11208,145 @@
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" ht="139" customHeight="1" spans="2:2">
-      <c r="B37" s="7"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="2:3">
+      <c r="B37" s="7">
+        <f>MAX(B35,B36)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="38" ht="27" spans="2:3">
       <c r="B38" s="7">
-        <f>MAX(B35,B36)+1</f>
-        <v>24</v>
+        <f>MAX(B36,B37)+1</f>
+        <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="2:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" ht="179" customHeight="1" spans="2:3">
       <c r="B39" s="7">
-        <f>MAX(B36,B38)+1</f>
-        <v>25</v>
+        <f>MAX(B37,B38)+1</f>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" ht="179" customHeight="1" spans="2:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" ht="84" customHeight="1" spans="2:3">
       <c r="B40" s="7">
         <f>MAX(B38,B39)+1</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" ht="84" customHeight="1" spans="2:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" ht="135" customHeight="1" spans="2:3">
       <c r="B41" s="7">
         <f>MAX(B39,B40)+1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" ht="135" customHeight="1" spans="2:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" ht="120" customHeight="1" spans="2:3">
       <c r="B42" s="7">
         <f>MAX(B40,B41)+1</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" ht="120" customHeight="1" spans="2:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" ht="50" customHeight="1" spans="2:3">
       <c r="B43" s="7">
-        <f>MAX(B41,B42)+1</f>
-        <v>29</v>
+        <f t="shared" ref="B43:B52" si="3">MAX(B41,B42)+1</f>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" ht="50" customHeight="1" spans="2:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" ht="48" customHeight="1" spans="2:3">
       <c r="B44" s="7">
-        <f t="shared" ref="B44:B53" si="3">MAX(B42,B43)+1</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" ht="48" customHeight="1" spans="2:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" ht="73" customHeight="1" spans="2:3">
       <c r="B45" s="7">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" ht="73" customHeight="1" spans="2:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" ht="71" customHeight="1" spans="2:3">
       <c r="B46" s="7">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" ht="93" customHeight="1" spans="2:3">
       <c r="B47" s="7">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" ht="135" customHeight="1" spans="2:3">
       <c r="B48" s="7">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+        <v>35</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" ht="87" customHeight="1" spans="2:3">
       <c r="B49" s="7">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>36</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" ht="87" customHeight="1" spans="2:3">
       <c r="B50" s="7">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="7">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="7">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="7">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="58" ht="11" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.196527777777778" right="0.156944444444444" top="0.196527777777778" bottom="0.156944444444444" header="0.156944444444444" footer="0.550694444444444"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="600"/>

--- a/CCNA/CCNA_课后总结.xlsx
+++ b/CCNA/CCNA_课后总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概念总结" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概念总结!$A$1:$C$210</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">命令合集!$A$1:$C$112</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -826,10 +826,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -866,8 +866,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,24 +888,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,26 +927,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -958,7 +943,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,14 +974,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,10 +995,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1019,19 +1019,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,6 +1073,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1061,49 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,91 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,6 +1210,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1232,57 +1247,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,6 +1275,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1318,10 +1318,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,16 +1330,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1351,16 +1351,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1369,94 +1369,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="141" ht="27" customHeight="1" spans="2:3">
       <c r="B141" s="7">
-        <f>MAX(B139,B140)+1</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -10911,10 +10911,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C58"/>
+  <dimension ref="A2:C59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="A52" sqref="$A52:$XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="76" customHeight="1" spans="2:3">
       <c r="B19" s="7">
-        <f t="shared" ref="B19:B36" si="2">MAX(B17,B18)+1</f>
+        <f t="shared" ref="B19:B42" si="2">MAX(B17,B18)+1</f>
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -11213,7 +11213,7 @@
     </row>
     <row r="37" ht="27" spans="2:3">
       <c r="B37" s="7">
-        <f>MAX(B35,B36)+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -11222,7 +11222,7 @@
     </row>
     <row r="38" ht="27" spans="2:3">
       <c r="B38" s="7">
-        <f>MAX(B36,B37)+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -11231,7 +11231,7 @@
     </row>
     <row r="39" ht="179" customHeight="1" spans="2:3">
       <c r="B39" s="7">
-        <f>MAX(B37,B38)+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -11240,7 +11240,7 @@
     </row>
     <row r="40" ht="84" customHeight="1" spans="2:3">
       <c r="B40" s="7">
-        <f>MAX(B38,B39)+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -11249,7 +11249,7 @@
     </row>
     <row r="41" ht="135" customHeight="1" spans="2:3">
       <c r="B41" s="7">
-        <f>MAX(B39,B40)+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -11258,7 +11258,7 @@
     </row>
     <row r="42" ht="120" customHeight="1" spans="2:3">
       <c r="B42" s="7">
-        <f>MAX(B40,B41)+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -11340,13 +11340,17 @@
     <row r="51" spans="2:2">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:2">
-      <c r="A52" s="4" t="s">
+    <row r="52" customFormat="1" spans="1:2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:2">
+      <c r="A53" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="58" ht="11" customHeight="1"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="59" ht="11" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.196527777777778" right="0.156944444444444" top="0.196527777777778" bottom="0.156944444444444" header="0.156944444444444" footer="0.550694444444444"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="600"/>
